--- a/raw_data/client_directory.xlsx
+++ b/raw_data/client_directory.xlsx
@@ -433,13 +433,10 @@
         <v xml:space="preserve">SHU100      </v>
       </c>
       <c r="C2" t="str">
-        <v>shunzan@smt.com.x</v>
+        <v>3e9d78f9-f40d-432e-92eb-07bcbd1540aa@mailslurp.biz</v>
       </c>
       <c r="D2" t="str">
-        <v>mori@smt.com.x</v>
-      </c>
-      <c r="E2" t="str">
-        <v>finance@smt.com.x</v>
+        <v>4b4dd350-f272-48e3-8303-88bccf71c9bf@mailslurp.biz</v>
       </c>
     </row>
     <row r="3">
@@ -450,13 +447,10 @@
         <v xml:space="preserve">SHU1050856  </v>
       </c>
       <c r="C3" t="str">
-        <v>shunzan@smt.com.x</v>
+        <v>3e9d78f9-f40d-432e-92eb-07bcbd1540aa@mailslurp.biz</v>
       </c>
       <c r="D3" t="str">
-        <v>mori@smt.com.x</v>
-      </c>
-      <c r="E3" t="str">
-        <v>finance@smt.com.x</v>
+        <v>4b4dd350-f272-48e3-8303-88bccf71c9bf@mailslurp.biz</v>
       </c>
     </row>
     <row r="4">
@@ -467,13 +461,10 @@
         <v xml:space="preserve">SHU110      </v>
       </c>
       <c r="C4" t="str">
-        <v>shunzan@smt.com.x</v>
+        <v>3e9d78f9-f40d-432e-92eb-07bcbd1540aa@mailslurp.biz</v>
       </c>
       <c r="D4" t="str">
-        <v>mori@smt.com.x</v>
-      </c>
-      <c r="E4" t="str">
-        <v>finance@smt.com.x</v>
+        <v>4b4dd350-f272-48e3-8303-88bccf71c9bf@mailslurp.biz</v>
       </c>
     </row>
     <row r="5">
@@ -484,13 +475,10 @@
         <v xml:space="preserve">SHU9650858  </v>
       </c>
       <c r="C5" t="str">
-        <v>shunzan@smt.com.x</v>
+        <v>3e9d78f9-f40d-432e-92eb-07bcbd1540aa@mailslurp.biz</v>
       </c>
       <c r="D5" t="str">
-        <v>mori@smt.com.x</v>
-      </c>
-      <c r="E5" t="str">
-        <v>finance@smt.com.x</v>
+        <v>4b4dd350-f272-48e3-8303-88bccf71c9bf@mailslurp.biz</v>
       </c>
     </row>
     <row r="6">
@@ -501,13 +489,10 @@
         <v xml:space="preserve">SHU9687112  </v>
       </c>
       <c r="C6" t="str">
-        <v>shunzan@smt.com.x</v>
+        <v>3e9d78f9-f40d-432e-92eb-07bcbd1540aa@mailslurp.biz</v>
       </c>
       <c r="D6" t="str">
-        <v>mori@smt.com.x</v>
-      </c>
-      <c r="E6" t="str">
-        <v>finance@smt.com.x</v>
+        <v>4b4dd350-f272-48e3-8303-88bccf71c9bf@mailslurp.biz</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +503,10 @@
         <v xml:space="preserve">SHU9866574  </v>
       </c>
       <c r="C7" t="str">
-        <v>shunzan@smt.com.x</v>
+        <v>3e9d78f9-f40d-432e-92eb-07bcbd1540aa@mailslurp.biz</v>
       </c>
       <c r="D7" t="str">
-        <v>mori@smt.com.x</v>
-      </c>
-      <c r="E7" t="str">
-        <v>finance@smt.com.x</v>
+        <v>4b4dd350-f272-48e3-8303-88bccf71c9bf@mailslurp.biz</v>
       </c>
     </row>
     <row r="8">
@@ -535,13 +517,10 @@
         <v xml:space="preserve">SHU9889100  </v>
       </c>
       <c r="C8" t="str">
-        <v>shunzan@smt.com.x</v>
+        <v>3e9d78f9-f40d-432e-92eb-07bcbd1540aa@mailslurp.biz</v>
       </c>
       <c r="D8" t="str">
-        <v>mori@smt.com.x</v>
-      </c>
-      <c r="E8" t="str">
-        <v>finance@smt.com.x</v>
+        <v>4b4dd350-f272-48e3-8303-88bccf71c9bf@mailslurp.biz</v>
       </c>
     </row>
     <row r="9">
@@ -552,13 +531,10 @@
         <v xml:space="preserve">SHU9932775  </v>
       </c>
       <c r="C9" t="str">
-        <v>shunzan@smt.com.x</v>
+        <v>3e9d78f9-f40d-432e-92eb-07bcbd1540aa@mailslurp.biz</v>
       </c>
       <c r="D9" t="str">
-        <v>mori@smt.com.x</v>
-      </c>
-      <c r="E9" t="str">
-        <v>finance@smt.com.x</v>
+        <v>4b4dd350-f272-48e3-8303-88bccf71c9bf@mailslurp.biz</v>
       </c>
     </row>
     <row r="10">
@@ -569,13 +545,10 @@
         <v xml:space="preserve">SET9754989  </v>
       </c>
       <c r="C10" t="str">
-        <v>setouchi@smt.com.x</v>
+        <v>c758ea26-2595-4335-9202-af590d50b0ad@mailslurp.biz</v>
       </c>
       <c r="D10" t="str">
-        <v>mori@smt.com.x</v>
-      </c>
-      <c r="E10" t="str">
-        <v>finance@smt.com.x</v>
+        <v>4b4dd350-f272-48e3-8303-88bccf71c9bf@mailslurp.biz</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +559,10 @@
         <v xml:space="preserve">SET9978353  </v>
       </c>
       <c r="C11" t="str">
-        <v>setouchi@smt.com.x</v>
+        <v>c758ea26-2595-4335-9202-af590d50b0ad@mailslurp.biz</v>
       </c>
       <c r="D11" t="str">
-        <v>mori@smt.com.x</v>
-      </c>
-      <c r="E11" t="str">
-        <v>finance@smt.com.x</v>
+        <v>4b4dd350-f272-48e3-8303-88bccf71c9bf@mailslurp.biz</v>
       </c>
     </row>
   </sheetData>
